--- a/SchedulingData/dynamic15/pso/scheduling2_16.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,211 +462,211 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>243.72</v>
+        <v>224.5</v>
       </c>
       <c r="D2" t="n">
-        <v>291.52</v>
+        <v>336.3</v>
       </c>
       <c r="E2" t="n">
-        <v>13.528</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>262.84</v>
+        <v>208.48</v>
       </c>
       <c r="D3" t="n">
-        <v>323.68</v>
+        <v>282.48</v>
       </c>
       <c r="E3" t="n">
-        <v>11.772</v>
+        <v>12.392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>323.68</v>
+        <v>231.5</v>
       </c>
       <c r="D4" t="n">
-        <v>387.9</v>
+        <v>304.82</v>
       </c>
       <c r="E4" t="n">
-        <v>7.46</v>
+        <v>9.208</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>263.32</v>
+        <v>282.48</v>
       </c>
       <c r="D5" t="n">
-        <v>308.92</v>
+        <v>348.58</v>
       </c>
       <c r="E5" t="n">
-        <v>10.748</v>
+        <v>7.412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>308.92</v>
+        <v>252.4</v>
       </c>
       <c r="D6" t="n">
-        <v>368.8</v>
+        <v>309.68</v>
       </c>
       <c r="E6" t="n">
-        <v>6.38</v>
+        <v>12.672</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>206.8</v>
+        <v>336.3</v>
       </c>
       <c r="D7" t="n">
-        <v>264.38</v>
+        <v>364.3</v>
       </c>
       <c r="E7" t="n">
-        <v>16.052</v>
+        <v>7.84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>253.76</v>
+        <v>364.3</v>
       </c>
       <c r="D8" t="n">
-        <v>309.04</v>
+        <v>421.44</v>
       </c>
       <c r="E8" t="n">
-        <v>13.216</v>
+        <v>4.256</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>387.9</v>
+        <v>266.84</v>
       </c>
       <c r="D9" t="n">
-        <v>458.9</v>
+        <v>322.24</v>
       </c>
       <c r="E9" t="n">
-        <v>2.48</v>
+        <v>9.916</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>368.8</v>
+        <v>309.68</v>
       </c>
       <c r="D10" t="n">
-        <v>452.62</v>
+        <v>346.52</v>
       </c>
       <c r="E10" t="n">
-        <v>2.588</v>
+        <v>10.128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>291.52</v>
+        <v>421.44</v>
       </c>
       <c r="D11" t="n">
-        <v>324.42</v>
+        <v>474.34</v>
       </c>
       <c r="E11" t="n">
-        <v>11.368</v>
+        <v>2.096</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>452.62</v>
+        <v>322.24</v>
       </c>
       <c r="D12" t="n">
-        <v>553.74</v>
+        <v>377.08</v>
       </c>
       <c r="E12" t="n">
-        <v>30</v>
+        <v>6.572</v>
       </c>
     </row>
     <row r="13">
@@ -675,74 +675,74 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>553.74</v>
+        <v>304.82</v>
       </c>
       <c r="D13" t="n">
-        <v>609.04</v>
+        <v>360.94</v>
       </c>
       <c r="E13" t="n">
-        <v>27.14</v>
+        <v>5.736</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>609.04</v>
+        <v>346.52</v>
       </c>
       <c r="D14" t="n">
-        <v>653.6</v>
+        <v>390.62</v>
       </c>
       <c r="E14" t="n">
-        <v>24.324</v>
+        <v>6.848</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>264.38</v>
+        <v>360.94</v>
       </c>
       <c r="D15" t="n">
-        <v>331.56</v>
+        <v>413.76</v>
       </c>
       <c r="E15" t="n">
-        <v>12.444</v>
+        <v>2.564</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>331.56</v>
+        <v>377.08</v>
       </c>
       <c r="D16" t="n">
-        <v>403.86</v>
+        <v>419.88</v>
       </c>
       <c r="E16" t="n">
-        <v>7.344</v>
+        <v>2.932</v>
       </c>
     </row>
     <row r="17">
@@ -751,150 +751,150 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>403.86</v>
+        <v>272.62</v>
       </c>
       <c r="D17" t="n">
-        <v>462.98</v>
+        <v>330.22</v>
       </c>
       <c r="E17" t="n">
-        <v>5.012</v>
+        <v>12.608</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>237.24</v>
+        <v>390.62</v>
       </c>
       <c r="D18" t="n">
-        <v>296.14</v>
+        <v>486.88</v>
       </c>
       <c r="E18" t="n">
-        <v>13.036</v>
+        <v>3.312</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>296.14</v>
+        <v>474.34</v>
       </c>
       <c r="D19" t="n">
-        <v>361.14</v>
+        <v>581.45</v>
       </c>
       <c r="E19" t="n">
-        <v>8.176</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>324.42</v>
+        <v>581.45</v>
       </c>
       <c r="D20" t="n">
-        <v>376.16</v>
+        <v>625.55</v>
       </c>
       <c r="E20" t="n">
-        <v>8.824</v>
+        <v>27.28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>309.04</v>
+        <v>419.88</v>
       </c>
       <c r="D21" t="n">
-        <v>353.1</v>
+        <v>486.02</v>
       </c>
       <c r="E21" t="n">
-        <v>9.94</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>376.16</v>
+        <v>486.02</v>
       </c>
       <c r="D22" t="n">
-        <v>423.86</v>
+        <v>528.7</v>
       </c>
       <c r="E22" t="n">
-        <v>5.184</v>
+        <v>26.932</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>423.86</v>
+        <v>330.22</v>
       </c>
       <c r="D23" t="n">
-        <v>466.94</v>
+        <v>382.92</v>
       </c>
       <c r="E23" t="n">
-        <v>2.016</v>
+        <v>8.968</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>353.1</v>
+        <v>382.92</v>
       </c>
       <c r="D24" t="n">
-        <v>404.72</v>
+        <v>435.94</v>
       </c>
       <c r="E24" t="n">
-        <v>5.908</v>
+        <v>5.796</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>361.14</v>
+        <v>528.7</v>
       </c>
       <c r="D25" t="n">
-        <v>405.56</v>
+        <v>589.36</v>
       </c>
       <c r="E25" t="n">
-        <v>5.844</v>
+        <v>23.956</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>466.94</v>
+        <v>348.58</v>
       </c>
       <c r="D26" t="n">
-        <v>564.21</v>
+        <v>408.76</v>
       </c>
       <c r="E26" t="n">
-        <v>30</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>564.21</v>
+        <v>408.76</v>
       </c>
       <c r="D27" t="n">
-        <v>631.29</v>
+        <v>466.54</v>
       </c>
       <c r="E27" t="n">
-        <v>26.472</v>
+        <v>0.356</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>653.6</v>
+        <v>466.54</v>
       </c>
       <c r="D28" t="n">
-        <v>716.5</v>
+        <v>567.13</v>
       </c>
       <c r="E28" t="n">
-        <v>21.144</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
@@ -979,93 +979,93 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>716.5</v>
+        <v>413.76</v>
       </c>
       <c r="D29" t="n">
-        <v>765.14</v>
+        <v>473.08</v>
       </c>
       <c r="E29" t="n">
-        <v>18.9</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>631.29</v>
+        <v>473.08</v>
       </c>
       <c r="D30" t="n">
-        <v>690.99</v>
+        <v>569.22</v>
       </c>
       <c r="E30" t="n">
-        <v>24.112</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>458.9</v>
+        <v>569.22</v>
       </c>
       <c r="D31" t="n">
-        <v>535.64</v>
+        <v>655.38</v>
       </c>
       <c r="E31" t="n">
-        <v>30</v>
+        <v>26.524</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>535.64</v>
+        <v>589.36</v>
       </c>
       <c r="D32" t="n">
-        <v>597.04</v>
+        <v>666.72</v>
       </c>
       <c r="E32" t="n">
-        <v>26.04</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>462.98</v>
+        <v>625.55</v>
       </c>
       <c r="D33" t="n">
-        <v>530.6799999999999</v>
+        <v>664.29</v>
       </c>
       <c r="E33" t="n">
-        <v>1.372</v>
+        <v>25.036</v>
       </c>
     </row>
     <row r="34">
@@ -1074,93 +1074,93 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>530.6799999999999</v>
+        <v>435.94</v>
       </c>
       <c r="D34" t="n">
-        <v>599.9400000000001</v>
+        <v>475.94</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>3.436</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>765.14</v>
+        <v>486.88</v>
       </c>
       <c r="D35" t="n">
-        <v>816.9</v>
+        <v>533.88</v>
       </c>
       <c r="E35" t="n">
-        <v>15.364</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>597.04</v>
+        <v>533.88</v>
       </c>
       <c r="D36" t="n">
-        <v>662.9</v>
+        <v>605.42</v>
       </c>
       <c r="E36" t="n">
-        <v>23.064</v>
+        <v>30</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>599.9400000000001</v>
+        <v>567.13</v>
       </c>
       <c r="D37" t="n">
-        <v>638.66</v>
+        <v>607.35</v>
       </c>
       <c r="E37" t="n">
-        <v>26.828</v>
+        <v>27.668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>690.99</v>
+        <v>475.94</v>
       </c>
       <c r="D38" t="n">
-        <v>748.27</v>
+        <v>524.74</v>
       </c>
       <c r="E38" t="n">
-        <v>20.024</v>
+        <v>1.156</v>
       </c>
     </row>
     <row r="39">
@@ -1169,17 +1169,17 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>638.66</v>
+        <v>524.74</v>
       </c>
       <c r="D39" t="n">
-        <v>686.3200000000001</v>
+        <v>594.33</v>
       </c>
       <c r="E39" t="n">
-        <v>23.692</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
@@ -1188,55 +1188,55 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>748.27</v>
+        <v>605.42</v>
       </c>
       <c r="D40" t="n">
-        <v>818.27</v>
+        <v>661.22</v>
       </c>
       <c r="E40" t="n">
-        <v>16.644</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>405.56</v>
+        <v>594.33</v>
       </c>
       <c r="D41" t="n">
-        <v>487.36</v>
+        <v>648.79</v>
       </c>
       <c r="E41" t="n">
-        <v>2.764</v>
+        <v>26.724</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>404.72</v>
+        <v>664.29</v>
       </c>
       <c r="D42" t="n">
-        <v>478.56</v>
+        <v>723.87</v>
       </c>
       <c r="E42" t="n">
-        <v>1.644</v>
+        <v>21.188</v>
       </c>
     </row>
     <row r="43">
@@ -1245,112 +1245,93 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>478.56</v>
+        <v>607.35</v>
       </c>
       <c r="D43" t="n">
-        <v>571.67</v>
+        <v>652.23</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>662.9</v>
+        <v>661.22</v>
       </c>
       <c r="D44" t="n">
-        <v>734.0599999999999</v>
+        <v>706.12</v>
       </c>
       <c r="E44" t="n">
-        <v>19.088</v>
+        <v>23.24</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>571.67</v>
+        <v>666.72</v>
       </c>
       <c r="D45" t="n">
-        <v>644.89</v>
+        <v>736.72</v>
       </c>
       <c r="E45" t="n">
-        <v>26.828</v>
+        <v>17.44</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>686.3200000000001</v>
+        <v>655.38</v>
       </c>
       <c r="D46" t="n">
-        <v>756.76</v>
+        <v>722.98</v>
       </c>
       <c r="E46" t="n">
-        <v>20.728</v>
+        <v>23.344</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>487.36</v>
+        <v>648.79</v>
       </c>
       <c r="D47" t="n">
-        <v>549.66</v>
+        <v>704.4299999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.604</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>4</v>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>depot1</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>549.66</v>
-      </c>
-      <c r="D48" t="n">
-        <v>659.75</v>
-      </c>
-      <c r="E48" t="n">
-        <v>30</v>
+        <v>23.76</v>
       </c>
     </row>
   </sheetData>
